--- a/Методы решения.xlsx
+++ b/Методы решения.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="897" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="897" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="отделение корня" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,11 @@
     <sheet name="Лист1" sheetId="6" r:id="rId6"/>
     <sheet name="Метод Якоби" sheetId="7" r:id="rId7"/>
     <sheet name="Метод Зейделя" sheetId="9" r:id="rId8"/>
-    <sheet name="Многочлен Лагранжа" sheetId="10" r:id="rId9"/>
-    <sheet name="Ньютон" sheetId="11" r:id="rId10"/>
+    <sheet name="Многочлен Лагранжа (2)" sheetId="12" r:id="rId9"/>
+    <sheet name="Многочлен Лагранжа" sheetId="10" r:id="rId10"/>
+    <sheet name="Ньютон" sheetId="11" r:id="rId11"/>
+    <sheet name="Ньютон (2)" sheetId="13" r:id="rId12"/>
+    <sheet name="Лист2" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>x</t>
   </si>
@@ -450,6 +453,24 @@
       </rPr>
       <t>y</t>
     </r>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>h=</t>
+  </si>
+  <si>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>точное значение</t>
   </si>
 </sst>
 </file>
@@ -731,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,6 +887,12 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,10 +929,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1404,10 +1434,259 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="9.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="C1" s="23">
+        <v>1.28</v>
+      </c>
+      <c r="D1" s="23">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E1" s="23">
+        <v>3.17</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="23">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="23">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="D2" s="23">
+        <v>2.35</v>
+      </c>
+      <c r="E2" s="23">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="23">
+        <f>H1</f>
+        <v>2.75</v>
+      </c>
+      <c r="B4" s="23">
+        <f>B1</f>
+        <v>0.63</v>
+      </c>
+      <c r="C4" s="23">
+        <f>C1</f>
+        <v>1.28</v>
+      </c>
+      <c r="D4" s="23">
+        <f>D1</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E4" s="23">
+        <f>E1</f>
+        <v>3.17</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="45" customFormat="1">
+      <c r="A5" s="46">
+        <f>B1</f>
+        <v>0.63</v>
+      </c>
+      <c r="B5" s="51">
+        <f>$H$1-A5</f>
+        <v>2.12</v>
+      </c>
+      <c r="C5" s="44">
+        <f>$A$5-C4</f>
+        <v>-0.65</v>
+      </c>
+      <c r="D5" s="44">
+        <f t="shared" ref="D5:E5" si="0">$A$5-D4</f>
+        <v>-1.9</v>
+      </c>
+      <c r="E5" s="44">
+        <f t="shared" si="0"/>
+        <v>-2.54</v>
+      </c>
+      <c r="F5" s="30">
+        <f>B5*C5*D5*E5</f>
+        <v>-6.6502280000000011</v>
+      </c>
+      <c r="G5" s="44">
+        <f>B2</f>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="H5" s="30">
+        <f>G5/F5</f>
+        <v>4.3607527441164411E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="45" customFormat="1">
+      <c r="A6" s="46">
+        <f>C1</f>
+        <v>1.28</v>
+      </c>
+      <c r="B6" s="44">
+        <f>$A$6-B4</f>
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="51">
+        <f>$H$1-C4</f>
+        <v>1.47</v>
+      </c>
+      <c r="D6" s="44">
+        <f t="shared" ref="D6" si="1">$A$6-D4</f>
+        <v>-1.2499999999999998</v>
+      </c>
+      <c r="E6" s="44">
+        <f>$A$6-E4</f>
+        <v>-1.89</v>
+      </c>
+      <c r="F6" s="30">
+        <f t="shared" ref="F6:F8" si="2">B6*C6*D6*E6</f>
+        <v>2.2573687499999995</v>
+      </c>
+      <c r="G6" s="44">
+        <f>C2</f>
+        <v>0.32</v>
+      </c>
+      <c r="H6" s="30">
+        <f t="shared" ref="H6:H8" si="3">G6/F6</f>
+        <v>0.14175796488721662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="45" customFormat="1">
+      <c r="A7" s="46">
+        <f>D1</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="B7" s="44">
+        <f>$A$7-B4</f>
+        <v>1.9</v>
+      </c>
+      <c r="C7" s="44">
+        <f t="shared" ref="C7:E7" si="4">$A$7-C4</f>
+        <v>1.2499999999999998</v>
+      </c>
+      <c r="D7" s="51">
+        <f>$H$1-D4</f>
+        <v>0.2200000000000002</v>
+      </c>
+      <c r="E7" s="44">
+        <f t="shared" si="4"/>
+        <v>-0.64000000000000012</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" si="2"/>
+        <v>-0.33440000000000031</v>
+      </c>
+      <c r="G7" s="44">
+        <f>D2</f>
+        <v>2.35</v>
+      </c>
+      <c r="H7" s="30">
+        <f t="shared" si="3"/>
+        <v>-7.0275119617224817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="45" customFormat="1">
+      <c r="A8" s="46">
+        <f>E1</f>
+        <v>3.17</v>
+      </c>
+      <c r="B8" s="44">
+        <f>$A$8-B4</f>
+        <v>2.54</v>
+      </c>
+      <c r="C8" s="44">
+        <f t="shared" ref="C8:D8" si="5">$A$8-C4</f>
+        <v>1.89</v>
+      </c>
+      <c r="D8" s="44">
+        <f t="shared" si="5"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="E8" s="51">
+        <f>$H$1-E4</f>
+        <v>-0.41999999999999993</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="2"/>
+        <v>-1.2904012800000002</v>
+      </c>
+      <c r="G8" s="44">
+        <f>E2</f>
+        <v>3.66</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="3"/>
+        <v>-2.8363270067432045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="45" customFormat="1">
+      <c r="E9" s="47"/>
+      <c r="F9" s="48">
+        <f>B5*C6*D7*E8</f>
+        <v>-0.28795536000000022</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50">
+        <f>SUM(H5:H8)</f>
+        <v>-9.6784734761373059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="43">
+        <f>F9*H9</f>
+        <v>2.7869683140715713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1439,7 +1718,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="65">
+      <c r="A2" s="53">
         <v>0</v>
       </c>
       <c r="B2" s="44">
@@ -1453,20 +1732,20 @@
         <v>0.49</v>
       </c>
       <c r="E2" s="51">
-        <f t="shared" ref="E2:G4" si="0">D3-D2</f>
+        <f t="shared" ref="E2:E3" si="0">D3-D2</f>
         <v>-5.9999999999999831E-2</v>
       </c>
       <c r="F2" s="51">
         <f>E3-E2</f>
         <v>-4.4408920985006262E-16</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="52">
         <f>F3-F2</f>
         <v>1.0000000000000675E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
       <c r="B3" s="44">
@@ -1483,14 +1762,14 @@
         <f t="shared" si="0"/>
         <v>-6.0000000000000275E-2</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="52">
         <f>E4-E3</f>
         <v>1.0000000000000231E-2</v>
       </c>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65">
+      <c r="A4" s="53">
         <v>2</v>
       </c>
       <c r="B4" s="44">
@@ -1503,7 +1782,7 @@
         <f t="shared" si="1"/>
         <v>0.36999999999999988</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="52">
         <f>D5-D4</f>
         <v>-5.0000000000000044E-2</v>
       </c>
@@ -1511,7 +1790,7 @@
       <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65">
+      <c r="A5" s="53">
         <v>3</v>
       </c>
       <c r="B5" s="44">
@@ -1520,7 +1799,7 @@
       <c r="C5" s="44">
         <v>1.98</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="52">
         <f t="shared" si="1"/>
         <v>0.31999999999999984</v>
       </c>
@@ -1529,13 +1808,13 @@
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65">
+      <c r="A6" s="53">
         <v>4</v>
       </c>
       <c r="B6" s="44">
         <v>3</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="52">
         <v>2.2999999999999998</v>
       </c>
       <c r="D6" s="44"/>
@@ -1546,6 +1825,460 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25">
+      <c r="A1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="53">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44">
+        <v>1</v>
+      </c>
+      <c r="C2" s="51">
+        <v>0.69</v>
+      </c>
+      <c r="D2" s="51">
+        <f>C3-C2</f>
+        <v>0.49</v>
+      </c>
+      <c r="E2" s="51">
+        <f t="shared" ref="E2:E3" si="0">D3-D2</f>
+        <v>-5.9999999999999831E-2</v>
+      </c>
+      <c r="F2" s="51">
+        <f>E3-E2</f>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="G2" s="52">
+        <f>F3-F2</f>
+        <v>1.0000000000000675E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="44">
+        <v>1.18</v>
+      </c>
+      <c r="D3" s="44">
+        <f t="shared" ref="D3:D5" si="1">C4-C3</f>
+        <v>0.43000000000000016</v>
+      </c>
+      <c r="E3" s="44">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000275E-2</v>
+      </c>
+      <c r="F3" s="52">
+        <f>E4-E3</f>
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="53">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44">
+        <v>2</v>
+      </c>
+      <c r="C4" s="44">
+        <v>1.61</v>
+      </c>
+      <c r="D4" s="44">
+        <f t="shared" si="1"/>
+        <v>0.36999999999999988</v>
+      </c>
+      <c r="E4" s="52">
+        <f>D5-D4</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="53">
+        <v>3</v>
+      </c>
+      <c r="B5" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1.98</v>
+      </c>
+      <c r="D5" s="52">
+        <f t="shared" si="1"/>
+        <v>0.31999999999999984</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="53">
+        <v>4</v>
+      </c>
+      <c r="B6" s="44">
+        <v>3</v>
+      </c>
+      <c r="C6" s="52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19:R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="P1" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="P2" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="P3" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="23">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="P4" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="23"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="P9" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="68"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="23">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="23">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+    </row>
+    <row r="19" spans="17:18">
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+    </row>
+    <row r="20" spans="17:18">
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+    </row>
+    <row r="21" spans="17:18">
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+    </row>
+    <row r="22" spans="17:18">
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+    </row>
+    <row r="23" spans="17:18">
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P9:Q9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2714,7 +3447,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="23">
@@ -2734,7 +3467,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="23">
         <v>1.3</v>
       </c>
@@ -2752,7 +3485,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="23">
         <v>6.2</v>
       </c>
@@ -2770,7 +3503,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="23">
         <v>1.2</v>
       </c>
@@ -2788,7 +3521,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="26" customFormat="1">
-      <c r="A6" s="55"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="31">
         <f>B2/$B$2</f>
         <v>1</v>
@@ -2811,7 +3544,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="26" customFormat="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="27"/>
@@ -2833,7 +3566,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="26" customFormat="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27">
         <f t="shared" ref="C8:C9" si="1">C4-B4*C$6</f>
@@ -2853,7 +3586,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="26" customFormat="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27">
         <f t="shared" si="1"/>
@@ -2873,7 +3606,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="26" customFormat="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="27"/>
       <c r="C10" s="31">
         <f>C7/C7</f>
@@ -2893,7 +3626,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="26" customFormat="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="27"/>
@@ -2912,7 +3645,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="26" customFormat="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27">
@@ -2929,7 +3662,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="26" customFormat="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="31">
@@ -2946,7 +3679,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="26" customFormat="1">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="54" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="27"/>
@@ -2962,7 +3695,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="26" customFormat="1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2976,15 +3709,15 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="26" customFormat="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6" s="26" customFormat="1">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="54" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="27"/>
@@ -2999,7 +3732,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="26" customFormat="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="33">
@@ -3012,7 +3745,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="26" customFormat="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="27"/>
       <c r="C19" s="33">
         <v>1</v>
@@ -3025,7 +3758,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="26" customFormat="1">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="33">
         <v>1</v>
       </c>
@@ -3102,7 +3835,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="23">
@@ -3120,7 +3853,7 @@
       <c r="F2" s="23">
         <v>6</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="55" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="23">
@@ -3137,7 +3870,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="54"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="23">
         <v>26</v>
       </c>
@@ -3153,7 +3886,7 @@
       <c r="F3" s="23">
         <v>10</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="23">
         <v>26</v>
       </c>
@@ -3168,7 +3901,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="23">
         <v>32</v>
       </c>
@@ -3184,7 +3917,7 @@
       <c r="F4" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="54"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="23">
         <v>32</v>
       </c>
@@ -3199,7 +3932,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="54"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="23">
         <v>1.2</v>
       </c>
@@ -3215,14 +3948,14 @@
       <c r="F5" s="23">
         <v>1.6</v>
       </c>
-      <c r="H5" s="54"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="55"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="31">
         <f>B2/$B$2</f>
         <v>1</v>
@@ -3243,7 +3976,7 @@
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="31">
         <f>I2/$I$2</f>
         <v>1</v>
@@ -3262,7 +3995,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="27"/>
@@ -3282,7 +4015,7 @@
         <f>F3-B3*F6</f>
         <v>8.9803921568627452</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="54" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="27"/>
@@ -3300,7 +4033,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27">
         <f t="shared" ref="C8:C9" si="3">C4-B4*C$6</f>
@@ -3318,7 +4051,7 @@
         <f>F4-B4*F6</f>
         <v>-0.15490196078431362</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="27"/>
       <c r="J8" s="30">
         <f>J4-$I4*J$6</f>
@@ -3334,7 +4067,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="52"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27">
         <f t="shared" si="3"/>
@@ -3352,14 +4085,14 @@
         <f>F5-B5*F6</f>
         <v>1.5529411764705883</v>
       </c>
-      <c r="H9" s="52"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="52"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="27"/>
       <c r="C10" s="31">
         <f>C7/C7</f>
@@ -3377,7 +4110,7 @@
         <f t="shared" si="6"/>
         <v>-8.4757263586453635E-2</v>
       </c>
-      <c r="H10" s="52"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="27"/>
       <c r="J10" s="31">
         <f>J7/J7</f>
@@ -3393,7 +4126,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="27"/>
@@ -3410,7 +4143,7 @@
         <f>F8-C8*F10</f>
         <v>-3.6642958484979329</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="54" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="27"/>
@@ -3425,7 +4158,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="52"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27">
@@ -3440,14 +4173,14 @@
         <f t="shared" si="7"/>
         <v>1.7063352044907778</v>
       </c>
-      <c r="H12" s="52"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="52"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="31">
@@ -3462,7 +4195,7 @@
         <f>F11/D11</f>
         <v>-4.1764119019713566E-2</v>
       </c>
-      <c r="H13" s="52"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="31">
@@ -3475,7 +4208,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="59" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="27"/>
@@ -3496,7 +4229,7 @@
       <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="59"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3508,7 +4241,7 @@
         <f>F14/E14</f>
         <v>0.19644650515286571</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="59" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="27"/>
@@ -3522,13 +4255,13 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="H16" s="58"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="27"/>
       <c r="J16" s="33">
         <v>1</v>
@@ -3540,7 +4273,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="59" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="27"/>
@@ -3553,7 +4286,7 @@
         <f>F15</f>
         <v>0.19644650515286571</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="33">
         <v>1</v>
       </c>
@@ -3565,7 +4298,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="58"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="33">
@@ -3576,10 +4309,10 @@
         <f>F13-E13*F17</f>
         <v>0.15234475505340678</v>
       </c>
-      <c r="H18" s="59"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="58"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="27"/>
       <c r="C19" s="33">
         <v>1</v>
@@ -3592,7 +4325,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="59"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="33">
         <v>1</v>
       </c>
@@ -3638,11 +4371,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="38" t="s">
         <v>39</v>
       </c>
@@ -4059,11 +4792,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="38" t="s">
         <v>39</v>
       </c>
@@ -4372,7 +5105,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4387,22 +5120,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="23">
-        <v>0.63</v>
+        <v>2</v>
       </c>
       <c r="C1" s="23">
-        <v>1.28</v>
+        <v>3</v>
       </c>
       <c r="D1" s="23">
-        <v>2.5299999999999998</v>
+        <v>5</v>
       </c>
       <c r="E1" s="23">
-        <v>3.17</v>
+        <v>6</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>53</v>
       </c>
       <c r="H1" s="23">
-        <v>2.75</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4410,38 +5143,38 @@
         <v>48</v>
       </c>
       <c r="B2" s="23">
-        <v>-0.28999999999999998</v>
+        <v>4</v>
       </c>
       <c r="C2" s="23">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="D2" s="23">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="E2" s="23">
-        <v>3.66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="23">
         <f>H1</f>
-        <v>2.75</v>
+        <v>2.02</v>
       </c>
       <c r="B4" s="23">
         <f>B1</f>
-        <v>0.63</v>
+        <v>2</v>
       </c>
       <c r="C4" s="23">
         <f>C1</f>
-        <v>1.28</v>
+        <v>3</v>
       </c>
       <c r="D4" s="23">
         <f>D1</f>
-        <v>2.5299999999999998</v>
+        <v>5</v>
       </c>
       <c r="E4" s="23">
         <f>E1</f>
-        <v>3.17</v>
+        <v>6</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>49</v>
@@ -4456,149 +5189,149 @@
     <row r="5" spans="1:8" s="45" customFormat="1">
       <c r="A5" s="46">
         <f>B1</f>
-        <v>0.63</v>
+        <v>2</v>
       </c>
       <c r="B5" s="51">
         <f>$H$1-A5</f>
-        <v>2.12</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="C5" s="44">
         <f>$A$5-C4</f>
-        <v>-0.65</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="44">
         <f t="shared" ref="D5:E5" si="0">$A$5-D4</f>
-        <v>-1.9</v>
+        <v>-3</v>
       </c>
       <c r="E5" s="44">
         <f t="shared" si="0"/>
-        <v>-2.54</v>
+        <v>-4</v>
       </c>
       <c r="F5" s="30">
         <f>B5*C5*D5*E5</f>
-        <v>-6.6502280000000011</v>
+        <v>-0.24000000000000021</v>
       </c>
       <c r="G5" s="44">
         <f>B2</f>
-        <v>-0.28999999999999998</v>
+        <v>4</v>
       </c>
       <c r="H5" s="30">
         <f>G5/F5</f>
-        <v>4.3607527441164411E-2</v>
+        <v>-16.66666666666665</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="45" customFormat="1">
       <c r="A6" s="46">
         <f>C1</f>
-        <v>1.28</v>
+        <v>3</v>
       </c>
       <c r="B6" s="44">
         <f>$A$6-B4</f>
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C6" s="51">
         <f>$H$1-C4</f>
-        <v>1.47</v>
+        <v>-0.98</v>
       </c>
       <c r="D6" s="44">
         <f t="shared" ref="D6" si="1">$A$6-D4</f>
-        <v>-1.2499999999999998</v>
+        <v>-2</v>
       </c>
       <c r="E6" s="44">
         <f>$A$6-E4</f>
-        <v>-1.89</v>
+        <v>-3</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" ref="F6:F8" si="2">B6*C6*D6*E6</f>
-        <v>2.2573687499999995</v>
+        <v>-5.88</v>
       </c>
       <c r="G6" s="44">
         <f>C2</f>
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="H6" s="30">
         <f t="shared" ref="H6:H8" si="3">G6/F6</f>
-        <v>0.14175796488721662</v>
+        <v>-0.17006802721088435</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="45" customFormat="1">
       <c r="A7" s="46">
         <f>D1</f>
-        <v>2.5299999999999998</v>
+        <v>5</v>
       </c>
       <c r="B7" s="44">
         <f>$A$7-B4</f>
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="C7" s="44">
         <f t="shared" ref="C7:E7" si="4">$A$7-C4</f>
-        <v>1.2499999999999998</v>
+        <v>2</v>
       </c>
       <c r="D7" s="51">
         <f>$H$1-D4</f>
-        <v>0.2200000000000002</v>
+        <v>-2.98</v>
       </c>
       <c r="E7" s="44">
         <f t="shared" si="4"/>
-        <v>-0.64000000000000012</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" si="2"/>
-        <v>-0.33440000000000031</v>
+        <v>17.88</v>
       </c>
       <c r="G7" s="44">
         <f>D2</f>
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="H7" s="30">
         <f t="shared" si="3"/>
-        <v>-7.0275119617224817</v>
+        <v>0.39149888143176736</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="45" customFormat="1">
       <c r="A8" s="46">
         <f>E1</f>
-        <v>3.17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="44">
         <f>$A$8-B4</f>
-        <v>2.54</v>
+        <v>4</v>
       </c>
       <c r="C8" s="44">
         <f t="shared" ref="C8:D8" si="5">$A$8-C4</f>
-        <v>1.89</v>
+        <v>3</v>
       </c>
       <c r="D8" s="44">
         <f t="shared" si="5"/>
-        <v>0.64000000000000012</v>
+        <v>1</v>
       </c>
       <c r="E8" s="51">
         <f>$H$1-E4</f>
-        <v>-0.41999999999999993</v>
+        <v>-3.98</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>-1.2904012800000002</v>
+        <v>-47.76</v>
       </c>
       <c r="G8" s="44">
         <f>E2</f>
-        <v>3.66</v>
+        <v>2</v>
       </c>
       <c r="H8" s="30">
         <f t="shared" si="3"/>
-        <v>-2.8363270067432045</v>
+        <v>-4.1876046901172533E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="45" customFormat="1">
       <c r="E9" s="47"/>
       <c r="F9" s="48">
         <f>B5*C6*D7*E8</f>
-        <v>-0.28795536000000022</v>
+        <v>-0.2324638400000002</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="50">
         <f>SUM(H5:H8)</f>
-        <v>-9.6784734761373059</v>
+        <v>-16.487111859346939</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4607,7 +5340,7 @@
       </c>
       <c r="C11" s="43">
         <f>F9*H9</f>
-        <v>2.7869683140715713</v>
+        <v>3.8326573333333327</v>
       </c>
     </row>
   </sheetData>
